--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Itgae</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Itgae</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H2">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2374133333333333</v>
+        <v>0.127652</v>
       </c>
       <c r="N2">
-        <v>0.71224</v>
+        <v>0.382956</v>
       </c>
       <c r="O2">
-        <v>0.5162595968733329</v>
+        <v>0.1213851285815897</v>
       </c>
       <c r="P2">
-        <v>0.5162595968733329</v>
+        <v>0.1213851285815897</v>
       </c>
       <c r="Q2">
-        <v>0.09965804528000001</v>
+        <v>0.135478471772</v>
       </c>
       <c r="R2">
-        <v>0.89692240752</v>
+        <v>1.219306245948</v>
       </c>
       <c r="S2">
-        <v>0.2118796994699117</v>
+        <v>0.1194223450319602</v>
       </c>
       <c r="T2">
-        <v>0.2118796994699116</v>
+        <v>0.1194223450319602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H3">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1059336666666667</v>
+        <v>0.5212876666666667</v>
       </c>
       <c r="N3">
-        <v>0.317801</v>
+        <v>1.563863</v>
       </c>
       <c r="O3">
-        <v>0.2303546784032658</v>
+        <v>0.4956958797851205</v>
       </c>
       <c r="P3">
-        <v>0.2303546784032658</v>
+        <v>0.4956958797851205</v>
       </c>
       <c r="Q3">
-        <v>0.044467351522</v>
+        <v>0.5532483347976668</v>
       </c>
       <c r="R3">
-        <v>0.400206163698</v>
+        <v>4.979235013179</v>
       </c>
       <c r="S3">
-        <v>0.09454057673149134</v>
+        <v>0.4876805344966952</v>
       </c>
       <c r="T3">
-        <v>0.09454057673149134</v>
+        <v>0.4876805344966951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,78 +661,78 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H4">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.116525</v>
+        <v>0.1525256666666667</v>
       </c>
       <c r="N4">
-        <v>0.349575</v>
+        <v>0.457577</v>
       </c>
       <c r="O4">
-        <v>0.2533857247234013</v>
+        <v>0.1450376622405135</v>
       </c>
       <c r="P4">
-        <v>0.2533857247234013</v>
+        <v>0.1450376622405135</v>
       </c>
       <c r="Q4">
-        <v>0.04891323315</v>
+        <v>0.1618771678156667</v>
       </c>
       <c r="R4">
-        <v>0.4402190983499999</v>
+        <v>1.456894510341</v>
       </c>
       <c r="S4">
-        <v>0.10399281975485</v>
+        <v>0.1426924199456054</v>
       </c>
       <c r="T4">
-        <v>0.10399281975485</v>
+        <v>0.1426924199456054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01083266666666667</v>
+        <v>1.061311</v>
       </c>
       <c r="H5">
-        <v>0.032498</v>
+        <v>3.183933</v>
       </c>
       <c r="I5">
-        <v>0.01059130149685484</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J5">
-        <v>0.01059130149685484</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2374133333333333</v>
+        <v>0.2501626666666667</v>
       </c>
       <c r="N5">
-        <v>0.71224</v>
+        <v>0.750488</v>
       </c>
       <c r="O5">
-        <v>0.5162595968733329</v>
+        <v>0.2378813293927764</v>
       </c>
       <c r="P5">
-        <v>0.5162595968733329</v>
+        <v>0.2378813293927764</v>
       </c>
       <c r="Q5">
-        <v>0.002571819502222222</v>
+        <v>0.2655003899226667</v>
       </c>
       <c r="R5">
-        <v>0.02314637552</v>
+        <v>2.389503509304</v>
       </c>
       <c r="S5">
-        <v>0.005467861041130208</v>
+        <v>0.2340348156925228</v>
       </c>
       <c r="T5">
-        <v>0.005467861041130208</v>
+        <v>0.2340348156925228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H6">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I6">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J6">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1059336666666667</v>
+        <v>0.127652</v>
       </c>
       <c r="N6">
-        <v>0.317801</v>
+        <v>0.382956</v>
       </c>
       <c r="O6">
-        <v>0.2303546784032658</v>
+        <v>0.1213851285815897</v>
       </c>
       <c r="P6">
-        <v>0.2303546784032658</v>
+        <v>0.1213851285815897</v>
       </c>
       <c r="Q6">
-        <v>0.001147544099777778</v>
+        <v>0.002226676386666667</v>
       </c>
       <c r="R6">
-        <v>0.010327896898</v>
+        <v>0.02004008748</v>
       </c>
       <c r="S6">
-        <v>0.002439755850180025</v>
+        <v>0.001962783549629492</v>
       </c>
       <c r="T6">
-        <v>0.002439755850180025</v>
+        <v>0.001962783549629492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,78 +847,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H7">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.116525</v>
+        <v>0.5212876666666667</v>
       </c>
       <c r="N7">
-        <v>0.349575</v>
+        <v>1.563863</v>
       </c>
       <c r="O7">
-        <v>0.2533857247234013</v>
+        <v>0.4956958797851205</v>
       </c>
       <c r="P7">
-        <v>0.2533857247234013</v>
+        <v>0.4956958797851205</v>
       </c>
       <c r="Q7">
-        <v>0.001262276483333333</v>
+        <v>0.009092994532222223</v>
       </c>
       <c r="R7">
-        <v>0.01136048835</v>
+        <v>0.08183695079</v>
       </c>
       <c r="S7">
-        <v>0.002683684605544608</v>
+        <v>0.008015345288425371</v>
       </c>
       <c r="T7">
-        <v>0.002683684605544608</v>
+        <v>0.008015345288425371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5921903333333333</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H8">
-        <v>1.776571</v>
+        <v>0.05233</v>
       </c>
       <c r="I8">
-        <v>0.5789956025468922</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J8">
-        <v>0.5789956025468922</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,152 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2374133333333333</v>
+        <v>0.1525256666666667</v>
       </c>
       <c r="N8">
-        <v>0.71224</v>
+        <v>0.457577</v>
       </c>
       <c r="O8">
-        <v>0.5162595968733329</v>
+        <v>0.1450376622405135</v>
       </c>
       <c r="P8">
-        <v>0.5162595968733329</v>
+        <v>0.1450376622405135</v>
       </c>
       <c r="Q8">
-        <v>0.1405938810044444</v>
+        <v>0.002660556045555556</v>
       </c>
       <c r="R8">
-        <v>1.26534492904</v>
+        <v>0.02394500441</v>
       </c>
       <c r="S8">
-        <v>0.298912036362291</v>
+        <v>0.002345242294908068</v>
       </c>
       <c r="T8">
-        <v>0.298912036362291</v>
+        <v>0.002345242294908068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01744333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.05233</v>
+      </c>
+      <c r="I9">
+        <v>0.01616988483321658</v>
+      </c>
+      <c r="J9">
+        <v>0.01616988483321658</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.776571</v>
-      </c>
-      <c r="I9">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J9">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1059336666666667</v>
+        <v>0.2501626666666667</v>
       </c>
       <c r="N9">
-        <v>0.317801</v>
+        <v>0.750488</v>
       </c>
       <c r="O9">
-        <v>0.2303546784032658</v>
+        <v>0.2378813293927764</v>
       </c>
       <c r="P9">
-        <v>0.2303546784032658</v>
+        <v>0.2378813293927764</v>
       </c>
       <c r="Q9">
-        <v>0.06273289337455555</v>
+        <v>0.004363670782222223</v>
       </c>
       <c r="R9">
-        <v>0.564596040371</v>
+        <v>0.03927303704</v>
       </c>
       <c r="S9">
-        <v>0.1333743458215945</v>
+        <v>0.003846513700253654</v>
       </c>
       <c r="T9">
-        <v>0.1333743458215945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.776571</v>
-      </c>
-      <c r="I10">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J10">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.116525</v>
-      </c>
-      <c r="N10">
-        <v>0.349575</v>
-      </c>
-      <c r="O10">
-        <v>0.2533857247234013</v>
-      </c>
-      <c r="P10">
-        <v>0.2533857247234013</v>
-      </c>
-      <c r="Q10">
-        <v>0.06900497859166665</v>
-      </c>
-      <c r="R10">
-        <v>0.6210448073249999</v>
-      </c>
-      <c r="S10">
-        <v>0.1467092203630067</v>
-      </c>
-      <c r="T10">
-        <v>0.1467092203630067</v>
+        <v>0.003846513700253654</v>
       </c>
     </row>
   </sheetData>
